--- a/data/perry_pc/pennycress_yeild_2024.xlsx
+++ b/data/perry_pc/pennycress_yeild_2024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wlperry/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wlperry/Documents/r_projects/r_class_2024/data/perry_pc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD5F415F-E77A-AB40-B0B1-134002A11F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0078D9-A714-784B-8CED-E0F4DEA06D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="52040" yWindow="-4620" windowWidth="28100" windowHeight="17440" xr2:uid="{B6792A33-F7C1-DA43-A615-E53912478DA7}"/>
   </bookViews>
@@ -41,9 +41,6 @@
     <t>plot</t>
   </si>
   <si>
-    <t>pc+n</t>
-  </si>
-  <si>
     <t>treatment</t>
   </si>
   <si>
@@ -62,7 +59,10 @@
     <t>50ft*5ft</t>
   </si>
   <si>
-    <t>convert_acre</t>
+    <t>pc_n</t>
+  </si>
+  <si>
+    <t>to_convert_acre_mutlby</t>
   </si>
 </sst>
 </file>
@@ -436,26 +436,29 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
@@ -466,7 +469,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>1.4</v>
@@ -475,7 +478,7 @@
         <v>10.4</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2">
         <v>174.24</v>
@@ -486,7 +489,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>1.5</v>
@@ -495,7 +498,7 @@
         <v>10.7</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3">
         <v>174.24</v>
@@ -506,7 +509,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>1.94</v>
@@ -515,7 +518,7 @@
         <v>10.1</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4">
         <v>174.24</v>
@@ -526,7 +529,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>1.54</v>
@@ -535,7 +538,7 @@
         <v>10.3</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5">
         <v>174.24</v>
@@ -546,7 +549,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>0.9</v>
@@ -555,7 +558,7 @@
         <v>10.6</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6">
         <v>174.24</v>
@@ -566,7 +569,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>1.36</v>
@@ -575,7 +578,7 @@
         <v>11.5</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7">
         <v>174.24</v>
@@ -586,7 +589,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>0.89</v>
@@ -595,7 +598,7 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8">
         <v>174.24</v>
@@ -606,7 +609,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>1.36</v>
@@ -615,7 +618,7 @@
         <v>9.9</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9">
         <v>174.24</v>
@@ -626,7 +629,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C10">
         <v>3.26</v>
@@ -635,7 +638,7 @@
         <v>10.7</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10">
         <v>174.24</v>
@@ -646,7 +649,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>3.12</v>
@@ -655,7 +658,7 @@
         <v>11.3</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F11">
         <v>174.24</v>
@@ -666,7 +669,7 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C12">
         <v>2.25</v>
@@ -675,7 +678,7 @@
         <v>9.9</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F12">
         <v>174.24</v>
@@ -686,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C13">
         <v>1.94</v>
@@ -695,7 +698,7 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F13">
         <v>174.24</v>
@@ -706,7 +709,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14">
         <v>1.76</v>
@@ -715,7 +718,7 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F14">
         <v>174.24</v>
@@ -726,7 +729,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15">
         <v>1.33</v>
@@ -735,7 +738,7 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F15">
         <v>174.24</v>
@@ -746,7 +749,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16">
         <v>2.71</v>
@@ -755,7 +758,7 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F16">
         <v>174.24</v>
@@ -766,7 +769,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17">
         <v>2.71</v>
@@ -775,7 +778,7 @@
         <v>10.6</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F17">
         <v>174.24</v>
